--- a/fermentation_insights/TRY_results/spearman_HP_neutral_hexanol_glucose.xlsx
+++ b/fermentation_insights/TRY_results/spearman_HP_neutral_hexanol_glucose.xlsx
@@ -625,109 +625,109 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02873921848046201</v>
+        <v>0.01475977103908416</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4662701567539189</v>
+        <v>0.311313309253237</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2515562889072227</v>
+        <v>0.2458857835431342</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08196504912622815</v>
+        <v>0.1557350869403478</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1021915547888697</v>
+        <v>0.01716938067752271</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3028485712142804</v>
+        <v>-0.2537202788811155</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.009954248856221405</v>
+        <v>-0.003881679526718107</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1949358733968349</v>
+        <v>0.01599289597158389</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1405295132378309</v>
+        <v>0.03587822351289405</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09522988074701867</v>
+        <v>0.003956463825855304</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02373509337733443</v>
+        <v>-0.03595358381433526</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.04993324833120828</v>
+        <v>-0.04282452329809319</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4691112277806945</v>
+        <v>0.5120798723194893</v>
       </c>
       <c r="P2" t="n">
-        <v>0.003084077101927548</v>
+        <v>0.07534292537170148</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02413110327758194</v>
+        <v>-0.01918922875691503</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.456518412960324</v>
+        <v>-0.4273504134016536</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0826745668641716</v>
+        <v>0.005478645914583659</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1236705917647941</v>
+        <v>-0.009871431485725942</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4860316507912698</v>
+        <v>0.4662595610382442</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04594164854121353</v>
+        <v>-0.03713400453601814</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02684767119177979</v>
+        <v>0.01635577742310969</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001018525463136579</v>
+        <v>-0.01937882951531806</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.09833345833645842</v>
+        <v>-0.09055197820791283</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.1801110027750694</v>
+        <v>-0.07277030708122832</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.09870696767419186</v>
+        <v>0.000523874095496382</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.01318832970824271</v>
+        <v>-0.04626066504266017</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.05656341408535213</v>
+        <v>0.05102958011832048</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2489762244056102</v>
+        <v>0.1649451717806871</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02671866796669917</v>
+        <v>0.08077069108276433</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.1782359558988975</v>
+        <v>-0.2839809439237757</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.163625590639766</v>
+        <v>-0.1215837183348733</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1501762544063601</v>
+        <v>0.009947367789471157</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.08111902797569939</v>
+        <v>-0.02992207168828675</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.004036600915022876</v>
+        <v>-0.01792691970767883</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1995529888247206</v>
+        <v>0.2276531986127945</v>
       </c>
     </row>
     <row r="3">
@@ -737,112 +737,112 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02873921848046201</v>
+        <v>0.01475977103908416</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1038865971649291</v>
+        <v>0.1104798339193357</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2480057001425036</v>
+        <v>0.3492155088620355</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09974949373734343</v>
+        <v>-0.2810763563054252</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007471686792169805</v>
+        <v>0.0826558506234025</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.08808220205505138</v>
+        <v>-0.07790143160572642</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9494862371559289</v>
+        <v>0.9426090504362017</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1091667291682292</v>
+        <v>0.02565399061596246</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.02849771244281107</v>
+        <v>0.06683114732458929</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1080642016050401</v>
+        <v>-0.03617476869907479</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.04811670291757294</v>
+        <v>0.00374315097260389</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04090602265056626</v>
+        <v>0.09391439165756663</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01584189604740118</v>
+        <v>-0.06473229092916372</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.1316387909697742</v>
+        <v>0.06454806619226477</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1097577439435986</v>
+        <v>0.0743310813243253</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07604290107252681</v>
+        <v>-0.02977250309001236</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1917632940823521</v>
+        <v>-0.1141126804507218</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.0407635190879772</v>
+        <v>-0.06338079752319009</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1058186454661367</v>
+        <v>0.1843700814803259</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05757443936098403</v>
+        <v>0.05124846099384398</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03240681017025426</v>
+        <v>-0.01387119148476594</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0002415060376509413</v>
+        <v>0.0107251629006516</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03410785269631741</v>
+        <v>-0.03798437593750375</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.0287227180679517</v>
+        <v>0.09499285997143989</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.07567689192229805</v>
+        <v>-0.05120094080376322</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0945473636840921</v>
+        <v>-0.02795905583622334</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01615690392259806</v>
+        <v>0.02382979131916528</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.3002715067876697</v>
+        <v>-0.2901498325993304</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.06408160204005101</v>
+        <v>0.01748858195432782</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.06156003900097502</v>
+        <v>0.08524843699374797</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.01695492387309683</v>
+        <v>0.05661584246336986</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.0623865596639916</v>
+        <v>0.02197343189372758</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.0678871971799295</v>
+        <v>0.02468438673754695</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.06136203405085127</v>
+        <v>-0.04862995451981808</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.01532588314707868</v>
+        <v>-0.03616852867411469</v>
       </c>
     </row>
     <row r="4">
@@ -852,112 +852,112 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4662701567539189</v>
+        <v>0.311313309253237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1038865971649291</v>
+        <v>0.1104798339193357</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1503937598439961</v>
+        <v>-0.1754483817935272</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1021645541138528</v>
+        <v>-0.08142502970011881</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.009840246006150154</v>
+        <v>-0.0005639062556250225</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2104702617565439</v>
+        <v>-0.1735992223968896</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06720018000450011</v>
+        <v>0.01647116988467954</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6307672691817295</v>
+        <v>0.602997995991984</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02803720093002325</v>
+        <v>0.01222699290797163</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2998934973374334</v>
+        <v>0.2078254713018852</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.110396759918998</v>
+        <v>0.02998879195516782</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.07353633840846022</v>
+        <v>-0.01029460117840471</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2639240981024525</v>
+        <v>0.2707225228900916</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.05538588464711618</v>
+        <v>0.04128410113640454</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.02424660616515413</v>
+        <v>0.04395204780819123</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.02652366309157729</v>
+        <v>-0.0564435217740871</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1147798694967374</v>
+        <v>-0.04442408169632679</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.03440186004650116</v>
+        <v>-0.05484597938391753</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3012090302257556</v>
+        <v>0.2846732986931948</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3379194479861997</v>
+        <v>0.2596966867867471</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.04512412810320258</v>
+        <v>-0.07978899115596462</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.09652291307282682</v>
+        <v>0.03027352909411637</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.315508887722193</v>
+        <v>0.2722583370333481</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.09596789919747993</v>
+        <v>0.002387241548966196</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02993474836870922</v>
+        <v>0.07535108540434161</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.06533713342833571</v>
+        <v>-0.01955441421765687</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1675721893047326</v>
+        <v>-0.005706070824283297</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05100277506937673</v>
+        <v>-0.1169156996627986</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1168109202730068</v>
+        <v>-0.007371197484789939</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.2366849171229281</v>
+        <v>0.03148303793215173</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.07290782269556739</v>
+        <v>0.07869929079716319</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.02746418660466512</v>
+        <v>0.04676783507134029</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0698057451436286</v>
+        <v>-0.01377259909039636</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.3513507837695942</v>
+        <v>-0.3928430753723015</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.07492537313432836</v>
+        <v>0.005553334213336853</v>
       </c>
     </row>
     <row r="5">
@@ -967,112 +967,112 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2515562889072227</v>
+        <v>0.2458857835431342</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2480057001425036</v>
+        <v>0.3492155088620355</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1503937598439961</v>
+        <v>-0.1754483817935272</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07561689042226055</v>
+        <v>0.5369212196848787</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08811670291757294</v>
+        <v>0.05585859143436574</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1146838670966774</v>
+        <v>-0.1432666530666123</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04562364059101478</v>
+        <v>0.5348293713174853</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03629640741018526</v>
+        <v>-0.03957097428389714</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08685667141678542</v>
+        <v>0.09723946095784383</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09749343733593339</v>
+        <v>-0.01078996315985264</v>
       </c>
       <c r="M5" t="n">
-        <v>0.007410185254631366</v>
+        <v>-0.01481573926295705</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03444086102152554</v>
+        <v>0.007818271273085093</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03912997824945624</v>
+        <v>0.01648000192000768</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1210395259881497</v>
+        <v>0.03054617018468074</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0553108827720693</v>
+        <v>0.009530918123672495</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.01697892447311183</v>
+        <v>0.07079490717962872</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.09334583364584115</v>
+        <v>-0.07292323569294278</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.03089477236930923</v>
+        <v>-0.06707297229188917</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1192919822995575</v>
+        <v>0.08741929367717471</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.08521413035325884</v>
+        <v>0.01298808395233581</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05057826445661141</v>
+        <v>0.09509730838923355</v>
       </c>
       <c r="X5" t="n">
-        <v>0.006177154428860722</v>
+        <v>0.0382127608510434</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05579689492237306</v>
+        <v>-0.08380027120108481</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.04490662266556664</v>
+        <v>0.04917178068712275</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1364044101102528</v>
+        <v>-0.07565195060780243</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.09470186754668866</v>
+        <v>-0.0687932991731967</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.1604050101252531</v>
+        <v>0.07320115680462722</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.796828920723018</v>
+        <v>0.5607194268777075</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01951548788719718</v>
+        <v>0.03806914427657711</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.3063451586289657</v>
+        <v>0.1621827607310429</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.08708017700442511</v>
+        <v>-0.04317358069432278</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1017085427135678</v>
+        <v>0.01587135948543794</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.06651466286657166</v>
+        <v>0.09686937947751791</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.2723933098327458</v>
+        <v>0.2115212940851763</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.2151728793219831</v>
+        <v>0.2495371581486326</v>
       </c>
     </row>
     <row r="6">
@@ -1082,112 +1082,112 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.08196504912622815</v>
+        <v>0.1557350869403478</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.09974949373734343</v>
+        <v>-0.2810763563054252</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1021645541138528</v>
+        <v>-0.08142502970011881</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07561689042226055</v>
+        <v>0.5369212196848787</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06289957248931223</v>
+        <v>-0.03527236508946036</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0239015975399385</v>
+        <v>-0.04087840351361405</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04864321608040201</v>
+        <v>-0.05661603446413786</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03924098102452561</v>
+        <v>-0.04809811239244957</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1019545488637216</v>
+        <v>0.003723278893115572</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04372159303982599</v>
+        <v>0.002076296305185221</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1246396159903998</v>
+        <v>-0.02901995607982432</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04535813395334883</v>
+        <v>0.03633604934419737</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01856296407410185</v>
+        <v>0.0257375109500438</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0005565139128478212</v>
+        <v>0.01590764763059052</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.03784744618615465</v>
+        <v>-0.07824319297277189</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.05212030300757519</v>
+        <v>0.06123259693038772</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01835745893647341</v>
+        <v>0.03016783267133068</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03811295282382059</v>
+        <v>-0.02958021432085728</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.08838520963024075</v>
+        <v>-0.08949750999003996</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05703442586064652</v>
+        <v>0.05283592334369337</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03237080927023175</v>
+        <v>0.08282788331153325</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04798169954248856</v>
+        <v>0.03310515642062568</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06923273081827046</v>
+        <v>0.09847776991107965</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.09174979374484363</v>
+        <v>0.01526838107352429</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.06856521413035326</v>
+        <v>-0.07063689054756218</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.08305857646441162</v>
+        <v>-0.2225336901347605</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.09445286132153304</v>
+        <v>-0.003602990411961648</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2284197104927623</v>
+        <v>0.929693542774171</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06559813995349884</v>
+        <v>0.003024012096048384</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.07024075601890047</v>
+        <v>0.005849879399517598</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9295462386559664</v>
+        <v>-0.004088176352705411</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.03186379659491487</v>
+        <v>0.0260063120252481</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.03882997074926873</v>
+        <v>0.03334458137832551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.05994149853746344</v>
+        <v>-0.001504230016920068</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.07434035850896273</v>
+        <v>0.1044530258121033</v>
       </c>
     </row>
     <row r="7">
@@ -1197,112 +1197,112 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1021915547888697</v>
+        <v>0.01716938067752271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007471686792169805</v>
+        <v>0.0826558506234025</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.009840246006150154</v>
+        <v>-0.0005639062556250225</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08811670291757294</v>
+        <v>0.05585859143436574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06289957248931223</v>
+        <v>-0.03527236508946036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.03231380784519613</v>
+        <v>-0.0228686354745419</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02469961749043726</v>
+        <v>0.08910342841371366</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.08705467636690917</v>
+        <v>-0.01306565226260905</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1056851421285532</v>
+        <v>-0.1083313453253813</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08831170779269482</v>
+        <v>0.04719705278821115</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1041731043276082</v>
+        <v>0.01714826059304237</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.04769069226730668</v>
+        <v>-0.009399205596822387</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03180379509487737</v>
+        <v>0.009240900963603855</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.0850731268281707</v>
+        <v>-0.06015153660614642</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.05562139053476337</v>
+        <v>0.02646932187728751</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1315922898072452</v>
+        <v>-0.0740436561746247</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.1760999024975624</v>
+        <v>0.01246353785415142</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.02094652366309158</v>
+        <v>-0.0212874131496526</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.09250581264531613</v>
+        <v>-0.03526689306757227</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1041656041401035</v>
+        <v>0.02758964635858543</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07080627015675392</v>
+        <v>0.06868702674810699</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03681092027300682</v>
+        <v>0.02887518750075</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1142698567464187</v>
+        <v>0.01226644906579626</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.01720993024825621</v>
+        <v>0.01696845187380749</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.06187354683867097</v>
+        <v>-0.004993555974223897</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.02037800945023626</v>
+        <v>0.03612811251245005</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01213530338258456</v>
+        <v>0.05674179496717987</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.117886447161179</v>
+        <v>-0.03504887619550478</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.02935573389334733</v>
+        <v>0.04266468265873063</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02869121728043201</v>
+        <v>0.02212693650774603</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.05591389784744619</v>
+        <v>-0.001653510614042456</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.004371109277731943</v>
+        <v>0.004860499441997768</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.0108812720318008</v>
+        <v>0.01461692246768987</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0006315157878946973</v>
+        <v>0.04644709778839115</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.007185179629490737</v>
+        <v>0.02651617006468026</v>
       </c>
     </row>
     <row r="8">
@@ -1312,112 +1312,112 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3028485712142804</v>
+        <v>-0.2537202788811155</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.08808220205505138</v>
+        <v>-0.07790143160572642</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2104702617565439</v>
+        <v>-0.1735992223968896</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1146838670966774</v>
+        <v>-0.1432666530666123</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0239015975399385</v>
+        <v>-0.04087840351361405</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03231380784519613</v>
+        <v>-0.0228686354745419</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05657241431035776</v>
+        <v>-0.01337448549794199</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1044956123903098</v>
+        <v>0.03392960771843087</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.04372009300232506</v>
+        <v>-0.05021693686774747</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01485487137178429</v>
+        <v>-0.07896060384241536</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1180529513237831</v>
+        <v>-0.02454173016692067</v>
       </c>
       <c r="N8" t="n">
-        <v>0.008734718367959199</v>
+        <v>-0.0007647390589562358</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.1188824720618015</v>
+        <v>-0.016749858999436</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07008925223130578</v>
+        <v>0.04630847323389294</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06403960099002474</v>
+        <v>-0.02846392185568742</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.04310657766444161</v>
+        <v>-0.07805541622166488</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.03226730668266706</v>
+        <v>0.07443456973827896</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04992124803120078</v>
+        <v>0.06970223080892324</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05772294307357684</v>
+        <v>-0.02362675050700203</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.01828245706142654</v>
+        <v>-0.07259107436429746</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01121578039450986</v>
+        <v>0.01871057084228337</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1379404485112128</v>
+        <v>0.03775051900207601</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.007603690092252306</v>
+        <v>-0.01846999387997552</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04820070501762544</v>
+        <v>-0.01589891159564638</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.08074401860046501</v>
+        <v>-0.05005988023952096</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.05640141003525088</v>
+        <v>-0.0008312673250693003</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.02140253506337659</v>
+        <v>-0.07713390853563415</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.09545938648466212</v>
+        <v>-0.04578594314377257</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.05402085052126303</v>
+        <v>-0.1286049944199777</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.08269406735168379</v>
+        <v>-0.03133961335845344</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.06585014625365634</v>
+        <v>0.05461826647306589</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0390324758118953</v>
+        <v>0.007486493945975784</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.107851196279907</v>
+        <v>0.008412321649286597</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.03231830795769895</v>
+        <v>-0.05958916635666543</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.009102227555688892</v>
+        <v>-0.05436194544778179</v>
       </c>
     </row>
     <row r="9">
@@ -1427,112 +1427,112 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009954248856221405</v>
+        <v>-0.003881679526718107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9494862371559289</v>
+        <v>0.9426090504362017</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06720018000450011</v>
+        <v>0.01647116988467954</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04562364059101478</v>
+        <v>0.5348293713174853</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04864321608040201</v>
+        <v>-0.05661603446413786</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02469961749043726</v>
+        <v>0.08910342841371366</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.05657241431035776</v>
+        <v>-0.01337448549794199</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.09240531013275331</v>
+        <v>0.03930783723134892</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02285307132678317</v>
+        <v>0.07868037872151488</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1375114377859447</v>
+        <v>-0.03062719450877803</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.07550438760969025</v>
+        <v>0.004912627650510602</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03780844521113028</v>
+        <v>0.09960404641618567</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05017175429385735</v>
+        <v>-0.04695503582014328</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.07065476636915922</v>
+        <v>0.07336157344629378</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1012405310132753</v>
+        <v>0.05339637358549434</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06795319882997075</v>
+        <v>-0.01748867795471182</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.1232715817895447</v>
+        <v>-0.01517631670526682</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.0540913522838071</v>
+        <v>-0.07185398341593366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004374109352733818</v>
+        <v>0.03714734858939436</v>
       </c>
       <c r="V9" t="n">
-        <v>0.07539788494712368</v>
+        <v>0.04096768387073548</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04097652441311033</v>
+        <v>0.02131909327637311</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00254406360159004</v>
+        <v>0.05176763107052428</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.07388734718367959</v>
+        <v>-0.03469453877815511</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.01157428935723393</v>
+        <v>0.107746798987196</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.04700517512937823</v>
+        <v>-0.08001094404377618</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.06950273756843921</v>
+        <v>-0.05107422029688119</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.0152388809720243</v>
+        <v>0.01256337825351301</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.08445811145278632</v>
+        <v>-0.05780221520886084</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.05242181054526363</v>
+        <v>0.003532334129336517</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.05268881722043051</v>
+        <v>0.09773914295657182</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.007279681992049801</v>
+        <v>0.05446562586250345</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.02531913297832446</v>
+        <v>0.04201380005520022</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.0360504012600315</v>
+        <v>0.04168931875727503</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0002460061501537539</v>
+        <v>-0.0101378325513302</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.07271731793294832</v>
+        <v>0.06203900015600063</v>
       </c>
     </row>
     <row r="10">
@@ -1542,112 +1542,112 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1949358733968349</v>
+        <v>0.01599289597158389</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1091667291682292</v>
+        <v>0.02565399061596246</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6307672691817295</v>
+        <v>0.602997995991984</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03629640741018526</v>
+        <v>-0.03957097428389714</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03924098102452561</v>
+        <v>-0.04809811239244957</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08705467636690917</v>
+        <v>-0.01306565226260905</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1044956123903098</v>
+        <v>0.03392960771843087</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09240531013275331</v>
+        <v>0.03930783723134892</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.05735993399834996</v>
+        <v>0.01660547442189769</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01815795394884872</v>
+        <v>-0.02711991647966592</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.08219305482637065</v>
+        <v>0.04789046356185424</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.08138303457586439</v>
+        <v>-0.05198948795795183</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02057001425035626</v>
+        <v>-0.011687662750651</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02783319582989575</v>
+        <v>0.01850100200400802</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.01287332183304583</v>
+        <v>0.04067421069684279</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04123903097577439</v>
+        <v>-0.01522642890571562</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09977349433735844</v>
+        <v>0.04386007944031776</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01081527038175954</v>
+        <v>0.01753687014748059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1052126303157579</v>
+        <v>0.047499837999352</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02271806795169879</v>
+        <v>-0.008112800451201805</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.08408760219005475</v>
+        <v>-0.0501378325513302</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.1089117227930698</v>
+        <v>0.1102787131148525</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.09923048076201905</v>
+        <v>0.02571783087132349</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05717692942323558</v>
+        <v>0.05436722546890187</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.004930623265581639</v>
+        <v>0.03503946815787263</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.06862971574289357</v>
+        <v>-0.02232959331837327</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.07065926648166204</v>
+        <v>-0.009887559550238201</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.08666616665416635</v>
+        <v>-0.05723226092904372</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1342038550963774</v>
+        <v>-0.06419180876723507</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.2170164254106353</v>
+        <v>0.06942824571298285</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.02489762244056101</v>
+        <v>0.07332730130920524</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.06545263631590789</v>
+        <v>0.06720554882219529</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1179254481362034</v>
+        <v>0.01349506198024792</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.03231230780769519</v>
+        <v>-0.0169937959751839</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.01896647416185405</v>
+        <v>0.01590063960255841</v>
       </c>
     </row>
     <row r="11">
@@ -1657,112 +1657,112 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1405295132378309</v>
+        <v>0.03587822351289405</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02849771244281107</v>
+        <v>0.06683114732458929</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02803720093002325</v>
+        <v>0.01222699290797163</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08685667141678542</v>
+        <v>0.09723946095784383</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1019545488637216</v>
+        <v>0.003723278893115572</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1056851421285532</v>
+        <v>-0.1083313453253813</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.04372009300232506</v>
+        <v>-0.05021693686774747</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.02285307132678317</v>
+        <v>0.07868037872151488</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.05735993399834996</v>
+        <v>0.01660547442189769</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.01122178054451361</v>
+        <v>-0.03000530402121608</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1370599264981625</v>
+        <v>0.06336975747902991</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.1195289882247056</v>
+        <v>0.02625495301981208</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04474011850296258</v>
+        <v>-0.02340239760959044</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1076516912922823</v>
+        <v>0.008361633446533786</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.04062101552538813</v>
+        <v>-0.03776923907695631</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.002488562214055351</v>
+        <v>0.08433854535418142</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.01947498687467187</v>
+        <v>0.008124416497665991</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04984324608115203</v>
+        <v>-0.02712663650654603</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08062851571289283</v>
+        <v>0.02184757539030156</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02590114752868822</v>
+        <v>-0.03172399889599559</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.06342158553963849</v>
+        <v>-0.008395713582854332</v>
       </c>
       <c r="X11" t="n">
-        <v>0.08079801995049876</v>
+        <v>0.02106555626222505</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.1223235580889522</v>
+        <v>0.003092076368305473</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.02836120903022575</v>
+        <v>0.03397962391849568</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.04875271881797045</v>
+        <v>-0.0274875019500078</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02809570239255981</v>
+        <v>0.03048607394429578</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.04612315307882697</v>
+        <v>0.01537167748670995</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1063496587414685</v>
+        <v>0.0094874299497198</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.05554188854721368</v>
+        <v>0.03902252409009636</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.1113372834320858</v>
+        <v>-0.07177305509222037</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.1346013650341258</v>
+        <v>-0.03607051228204913</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.008230705767644191</v>
+        <v>-0.01198939195756783</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.06742518562964074</v>
+        <v>-0.05563999855999424</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0320168004200105</v>
+        <v>-0.05079303517214069</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.0659161479036976</v>
+        <v>0.04996407185628742</v>
       </c>
     </row>
     <row r="12">
@@ -1772,112 +1772,112 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09522988074701867</v>
+        <v>0.003956463825855304</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1080642016050401</v>
+        <v>-0.03617476869907479</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2998934973374334</v>
+        <v>0.2078254713018852</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09749343733593339</v>
+        <v>-0.01078996315985264</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04372159303982599</v>
+        <v>0.002076296305185221</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08831170779269482</v>
+        <v>0.04719705278821115</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.01485487137178429</v>
+        <v>-0.07896060384241536</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1375114377859447</v>
+        <v>-0.03062719450877803</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01815795394884872</v>
+        <v>-0.02711991647966592</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01122178054451361</v>
+        <v>-0.03000530402121608</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.03735993399834996</v>
+        <v>0.0101187284749139</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.09778894472361808</v>
+        <v>-0.009915783663134652</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0162424060601515</v>
+        <v>-0.01470274681098724</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06330758268956724</v>
+        <v>0.09468047472189889</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.09287782194554864</v>
+        <v>0.009511814047256189</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0788449711242781</v>
+        <v>0.01213953655814623</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.01037875946898672</v>
+        <v>0.0317876471505886</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06123453086327158</v>
+        <v>-0.05289928359713439</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1366879171979299</v>
+        <v>-0.01441637766551066</v>
       </c>
       <c r="V12" t="n">
-        <v>0.002530563264081602</v>
+        <v>-0.05151841407365629</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02444011100277507</v>
+        <v>-0.1211681326725307</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.04166204155103877</v>
+        <v>0.002541610166440666</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.00673516837920948</v>
+        <v>-0.02461123444493778</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.02206855171379285</v>
+        <v>0.02297077988311953</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03436585914647866</v>
+        <v>-0.01064173856695427</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.01809945248631216</v>
+        <v>-0.06744526178104712</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.04085652141303533</v>
+        <v>0.01237675350701403</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.1369009225230631</v>
+        <v>0.01516182064728259</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.0008985224630615765</v>
+        <v>0.002884811539246157</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.07693542338558464</v>
+        <v>0.04297140388561554</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.03054526363159079</v>
+        <v>-0.07702206808827235</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0511572789319733</v>
+        <v>-0.03117065268261073</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1239255981399535</v>
+        <v>-0.04269060276241105</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.02120603015075377</v>
+        <v>-0.02622759291037164</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.09145278631965799</v>
+        <v>0.06850885003540014</v>
       </c>
     </row>
     <row r="13">
@@ -1887,112 +1887,112 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02373509337733443</v>
+        <v>-0.03595358381433526</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04811670291757294</v>
+        <v>0.00374315097260389</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.110396759918998</v>
+        <v>0.02998879195516782</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007410185254631366</v>
+        <v>-0.01481573926295705</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1246396159903998</v>
+        <v>-0.02901995607982432</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1041731043276082</v>
+        <v>0.01714826059304237</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1180529513237831</v>
+        <v>-0.02454173016692067</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07550438760969025</v>
+        <v>0.004912627650510602</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.08219305482637065</v>
+        <v>0.04789046356185424</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1370599264981625</v>
+        <v>0.06336975747902991</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.03735993399834996</v>
+        <v>0.0101187284749139</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04206105152628815</v>
+        <v>0.02338166152664611</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00982374559363984</v>
+        <v>-0.01812669650678603</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.06145803645091127</v>
+        <v>0.02270869883479534</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.06563114077851946</v>
+        <v>0.03658699434797739</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.07879846996174904</v>
+        <v>-0.01472780291121164</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.02136353408835221</v>
+        <v>0.008882147528590114</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1822905572639316</v>
+        <v>0.01006333625334501</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00385209630240756</v>
+        <v>-0.09138353353413414</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.008631215780394511</v>
+        <v>0.05297675590702363</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.07034275856896423</v>
+        <v>-0.01676061104244417</v>
       </c>
       <c r="X13" t="n">
-        <v>0.04229505737643441</v>
+        <v>-0.009161316645266581</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.01977349433735844</v>
+        <v>0.005577430309721239</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.05170179254481362</v>
+        <v>-0.02619111276445106</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.01840396009900247</v>
+        <v>0.02373839895359581</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.2449081227030676</v>
+        <v>-0.003486349945399782</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.04351758793969849</v>
+        <v>0.001421957687830751</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.130683267081677</v>
+        <v>-0.03910556442225769</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.07828545713642841</v>
+        <v>0.05238040152160608</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.1141303532588315</v>
+        <v>0.0433997575990304</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.08175204380109503</v>
+        <v>0.06660727442909771</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.00933923348083702</v>
+        <v>0.006637178548714195</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.02918472961824045</v>
+        <v>0.02173573494293977</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.1832370809270232</v>
+        <v>-0.03194489577958312</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.05374184354608865</v>
+        <v>0.09532002928011712</v>
       </c>
     </row>
     <row r="14">
@@ -2002,112 +2002,112 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04993324833120828</v>
+        <v>-0.04282452329809319</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04090602265056626</v>
+        <v>0.09391439165756663</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.07353633840846022</v>
+        <v>-0.01029460117840471</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03444086102152554</v>
+        <v>0.007818271273085093</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04535813395334883</v>
+        <v>0.03633604934419737</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04769069226730668</v>
+        <v>-0.009399205596822387</v>
       </c>
       <c r="H14" t="n">
-        <v>0.008734718367959199</v>
+        <v>-0.0007647390589562358</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03780844521113028</v>
+        <v>0.09960404641618567</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.08138303457586439</v>
+        <v>-0.05198948795795183</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.1195289882247056</v>
+        <v>0.02625495301981208</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.09778894472361808</v>
+        <v>-0.009915783663134652</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04206105152628815</v>
+        <v>0.02338166152664611</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005538138453461337</v>
+        <v>-0.01338293353173413</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06170254256356409</v>
+        <v>-0.02694490777963112</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.07289732243306082</v>
+        <v>0.07992569570278281</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.06681317032925824</v>
+        <v>-0.01022212088848355</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0213710342758569</v>
+        <v>0.05049255397021588</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.1015420385509638</v>
+        <v>0.01648480193920776</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.05447836195904898</v>
+        <v>-0.03233571334285337</v>
       </c>
       <c r="V14" t="n">
-        <v>0.08915172879321984</v>
+        <v>0.003982575930303722</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06169054226355659</v>
+        <v>0.06411616046464186</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.02475811895297382</v>
+        <v>-0.007223836895347582</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01562289057226431</v>
+        <v>0.00583624734498938</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.04453911347783695</v>
+        <v>-0.006213816855267421</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.004068101702542563</v>
+        <v>-0.04756511826047304</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.03955148878721968</v>
+        <v>-0.006683258733034932</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.06878421960549014</v>
+        <v>-0.01767175068700275</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.04121353033825845</v>
+        <v>0.007315709262837052</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.04253356333908348</v>
+        <v>-0.02461728246912988</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.01862296557413935</v>
+        <v>-0.01091322765291061</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.05058126453161329</v>
+        <v>0.04250935403741615</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.03444236105902648</v>
+        <v>-0.001877191508766035</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.06928073201830046</v>
+        <v>0.03502948411793647</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.04881272031800795</v>
+        <v>-0.08102336409345637</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.01245331133278332</v>
+        <v>-0.06283676334705339</v>
       </c>
     </row>
     <row r="15">
@@ -2117,112 +2117,112 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4691112277806945</v>
+        <v>0.5120798723194893</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01584189604740118</v>
+        <v>-0.06473229092916372</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2639240981024525</v>
+        <v>0.2707225228900916</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03912997824945624</v>
+        <v>0.01648000192000768</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01856296407410185</v>
+        <v>0.0257375109500438</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03180379509487737</v>
+        <v>0.009240900963603855</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1188824720618015</v>
+        <v>-0.016749858999436</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05017175429385735</v>
+        <v>-0.04695503582014328</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02057001425035626</v>
+        <v>-0.011687662750651</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04474011850296258</v>
+        <v>-0.02340239760959044</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0162424060601515</v>
+        <v>-0.01470274681098724</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.00982374559363984</v>
+        <v>-0.01812669650678603</v>
       </c>
       <c r="N15" t="n">
-        <v>0.005538138453461337</v>
+        <v>-0.01338293353173413</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06384609615240382</v>
+        <v>0.02895237180948724</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08629415735393385</v>
+        <v>-0.1407371389485558</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1163714092852321</v>
+        <v>-0.0937686630746523</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1202145053626341</v>
+        <v>0.02415158460633842</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1519747993699843</v>
+        <v>-0.02845288181152725</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1541123528088202</v>
+        <v>-0.04229440917763671</v>
       </c>
       <c r="V15" t="n">
-        <v>0.075990399759994</v>
+        <v>-0.05418165672662691</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.06680717017925449</v>
+        <v>0.05932074928299713</v>
       </c>
       <c r="X15" t="n">
-        <v>0.09353483837095927</v>
+        <v>-0.06990834363337453</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.09842946073651841</v>
+        <v>-0.08067075468301874</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.09001575039375985</v>
+        <v>-0.08163632654530618</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.0004365109127728193</v>
+        <v>0.04078614714458858</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.03943148578714468</v>
+        <v>-0.006753915015660063</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.04098102452561314</v>
+        <v>0.03727685310741243</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03394584864621616</v>
+        <v>-0.007284413137652551</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1352238805970149</v>
+        <v>0.04445355381421526</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.05041926048151204</v>
+        <v>0.02298863595454382</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.007882697067426685</v>
+        <v>0.06777713510854043</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.02847971199279982</v>
+        <v>-0.02092616370465482</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.03443486087152179</v>
+        <v>0.02169618278473114</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.06574964374109353</v>
+        <v>0.01317182868731475</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.088139203480087</v>
+        <v>0.05972788691154764</v>
       </c>
     </row>
     <row r="16">
@@ -2232,112 +2232,112 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003084077101927548</v>
+        <v>0.07534292537170148</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1316387909697742</v>
+        <v>0.06454806619226477</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.05538588464711618</v>
+        <v>0.04128410113640454</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1210395259881497</v>
+        <v>0.03054617018468074</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005565139128478212</v>
+        <v>0.01590764763059052</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0850731268281707</v>
+        <v>-0.06015153660614642</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07008925223130578</v>
+        <v>0.04630847323389294</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07065476636915922</v>
+        <v>0.07336157344629378</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.02783319582989575</v>
+        <v>0.01850100200400802</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1076516912922823</v>
+        <v>0.008361633446533786</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06330758268956724</v>
+        <v>0.09468047472189889</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.06145803645091127</v>
+        <v>0.02270869883479534</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06170254256356409</v>
+        <v>-0.02694490777963112</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06384609615240382</v>
+        <v>0.02895237180948724</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05370584264606615</v>
+        <v>-0.03008834435337741</v>
       </c>
       <c r="R16" t="n">
-        <v>0.04678466961674042</v>
+        <v>0.03625809703238813</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1236930923273082</v>
+        <v>-0.007922719690878764</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.06206705167629191</v>
+        <v>-0.001182532730130921</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.07715592889822245</v>
+        <v>-0.01008311233244933</v>
       </c>
       <c r="V16" t="n">
-        <v>0.1014100352508813</v>
+        <v>-0.01238318553274213</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.02911572789319733</v>
+        <v>0.004381937527750111</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.04331358283957099</v>
+        <v>0.0105936423745695</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03393384834620865</v>
+        <v>0.02672631490525962</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.06576614415360384</v>
+        <v>-0.05128273313093253</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.1159228980724518</v>
+        <v>-0.001682310729242917</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05622290557263931</v>
+        <v>-0.02821566486265945</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.04233555838895972</v>
+        <v>0.0007933471733886935</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.09480387009675242</v>
+        <v>-0.001315301261205045</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.04070651766294157</v>
+        <v>0.04011721646886587</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.07739743493587339</v>
+        <v>0.01693504374017496</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.01857046426160654</v>
+        <v>0.05274760299041196</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.07082277056926423</v>
+        <v>0.02177749510998044</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.04067051676291907</v>
+        <v>0.03847608990435962</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.03890797269931748</v>
+        <v>-0.03691320365281461</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.05753243831095777</v>
+        <v>0.05309560438241753</v>
       </c>
     </row>
     <row r="17">
@@ -2347,112 +2347,112 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02413110327758194</v>
+        <v>-0.01918922875691503</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1097577439435986</v>
+        <v>0.0743310813243253</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02424660616515413</v>
+        <v>0.04395204780819123</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0553108827720693</v>
+        <v>0.009530918123672495</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.03784744618615465</v>
+        <v>-0.07824319297277189</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.05562139053476337</v>
+        <v>0.02646932187728751</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06403960099002474</v>
+        <v>-0.02846392185568742</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1012405310132753</v>
+        <v>0.05339637358549434</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01287332183304583</v>
+        <v>0.04067421069684279</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.04062101552538813</v>
+        <v>-0.03776923907695631</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.09287782194554864</v>
+        <v>0.009511814047256189</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.06563114077851946</v>
+        <v>0.03658699434797739</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.07289732243306082</v>
+        <v>0.07992569570278281</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08629415735393385</v>
+        <v>-0.1407371389485558</v>
       </c>
       <c r="P17" t="n">
-        <v>0.05370584264606615</v>
+        <v>-0.03008834435337741</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0519207980199505</v>
+        <v>0.01606288025152101</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.02433210830270757</v>
+        <v>-0.01510671642686571</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.006139653491337283</v>
+        <v>-0.02568365473461894</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01009075226880672</v>
+        <v>0.06365372661490645</v>
       </c>
       <c r="V17" t="n">
-        <v>0.03198379959498988</v>
+        <v>-0.007920223680894723</v>
       </c>
       <c r="W17" t="n">
-        <v>0.03377934448361209</v>
+        <v>0.05862234648938595</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06881572039300983</v>
+        <v>0.0007296989187956752</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02759168979224481</v>
+        <v>0.009880551522206089</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.06048151203780094</v>
+        <v>0.04793923175692703</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.06341858546463662</v>
+        <v>-0.02043003372013488</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.03215030375759394</v>
+        <v>0.05913700454801819</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.023625590639766</v>
+        <v>0.04769001476005904</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.1213605340133503</v>
+        <v>-0.0635937263749055</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.03365334133353334</v>
+        <v>-0.02437680150720603</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.07167779194479862</v>
+        <v>-0.003187116748466994</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.0830540763519088</v>
+        <v>-0.01149796599186397</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.0002535063376584415</v>
+        <v>-0.007851679406717627</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.02600015000375009</v>
+        <v>-0.006622874491497966</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.09226730668266707</v>
+        <v>-0.08376590306361226</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.01670741768544214</v>
+        <v>0.008983427933711735</v>
       </c>
     </row>
     <row r="18">
@@ -2462,112 +2462,112 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.456518412960324</v>
+        <v>-0.4273504134016536</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07604290107252681</v>
+        <v>-0.02977250309001236</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02652366309157729</v>
+        <v>-0.0564435217740871</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01697892447311183</v>
+        <v>0.07079490717962872</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.05212030300757519</v>
+        <v>0.06123259693038772</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1315922898072452</v>
+        <v>-0.0740436561746247</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.04310657766444161</v>
+        <v>-0.07805541622166488</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06795319882997075</v>
+        <v>-0.01748867795471182</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04123903097577439</v>
+        <v>-0.01522642890571562</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.002488562214055351</v>
+        <v>0.08433854535418142</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0788449711242781</v>
+        <v>0.01213953655814623</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.07879846996174904</v>
+        <v>-0.01472780291121164</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.06681317032925824</v>
+        <v>-0.01022212088848355</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1163714092852321</v>
+        <v>-0.0937686630746523</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04678466961674042</v>
+        <v>0.03625809703238813</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.0519207980199505</v>
+        <v>0.01606288025152101</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.01173479336983425</v>
+        <v>0.02480813123252493</v>
       </c>
       <c r="T18" t="n">
-        <v>0.05438385959648991</v>
+        <v>0.01242417769671079</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.007543688592214806</v>
+        <v>0.01740179760719043</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.0151908797719943</v>
+        <v>0.03524778899115596</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03124278106952674</v>
+        <v>0.0520937443749775</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.01511737793444836</v>
+        <v>-0.04550130200520802</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.01225530638265957</v>
+        <v>-0.03846965787863151</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01294082352058801</v>
+        <v>0.002222120888483554</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.1109862746568664</v>
+        <v>0.04250445801783207</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.06627615690392259</v>
+        <v>0.07163404653618614</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.1790084752118803</v>
+        <v>0.02377718310873244</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.03856446411160279</v>
+        <v>0.07822140088560355</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.08648616215405384</v>
+        <v>-0.03048194592778371</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.06308707717692942</v>
+        <v>0.05187851151404606</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.0489507237680942</v>
+        <v>0.005596438385753543</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.002206555163879097</v>
+        <v>0.04973568694274777</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.09725943148578714</v>
+        <v>0.05318882075528302</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.009396234905872648</v>
+        <v>0.04498961995847983</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.06206705167629191</v>
+        <v>-0.05407807231228925</v>
       </c>
     </row>
     <row r="19">
@@ -2577,112 +2577,112 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0826745668641716</v>
+        <v>0.005478645914583659</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1917632940823521</v>
+        <v>-0.1141126804507218</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1147798694967374</v>
+        <v>-0.04442408169632679</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.09334583364584115</v>
+        <v>-0.07292323569294278</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01835745893647341</v>
+        <v>0.03016783267133068</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1760999024975624</v>
+        <v>0.01246353785415142</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.03226730668266706</v>
+        <v>0.07443456973827896</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1232715817895447</v>
+        <v>-0.01517631670526682</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09977349433735844</v>
+        <v>0.04386007944031776</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.01947498687467187</v>
+        <v>0.008124416497665991</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01037875946898672</v>
+        <v>0.0317876471505886</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.02136353408835221</v>
+        <v>0.008882147528590114</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0213710342758569</v>
+        <v>0.05049255397021588</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.1202145053626341</v>
+        <v>0.02415158460633842</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1236930923273082</v>
+        <v>-0.007922719690878764</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02433210830270757</v>
+        <v>-0.01510671642686571</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.01173479336983425</v>
+        <v>0.02480813123252493</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03324383109577739</v>
+        <v>0.07977238308953236</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01005325133128328</v>
+        <v>-0.07852332209328837</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1021630540763519</v>
+        <v>-0.06643370573482293</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.08711917797944949</v>
+        <v>-0.00514437257749031</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.05625440636015901</v>
+        <v>0.05757344629378518</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07762394059851496</v>
+        <v>0.05770285481141925</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03901747543688592</v>
+        <v>-0.009952455809823239</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1503442586064652</v>
+        <v>0.01881837927351709</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02070501762544064</v>
+        <v>0.02153797415189661</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.05415285382134553</v>
+        <v>-0.09234564938259752</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01926798169954249</v>
+        <v>0.006449497797991192</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.03056476411910298</v>
+        <v>-0.0652001968007872</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.01424885622140554</v>
+        <v>0.0281623846495386</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.002391059776494412</v>
+        <v>-0.02700058800235201</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.00998124953123828</v>
+        <v>0.0478376633506534</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.04933173329333233</v>
+        <v>-0.01991662366649467</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.1157173929348234</v>
+        <v>-0.06036427345709383</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.006187654691367284</v>
+        <v>0.06227746510986044</v>
       </c>
     </row>
     <row r="20">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1236705917647941</v>
+        <v>-0.009871431485725942</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0407635190879772</v>
+        <v>-0.06338079752319009</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03440186004650116</v>
+        <v>-0.05484597938391753</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.03089477236930923</v>
+        <v>-0.06707297229188917</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03811295282382059</v>
+        <v>-0.02958021432085728</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.02094652366309158</v>
+        <v>-0.0212874131496526</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04992124803120078</v>
+        <v>0.06970223080892324</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0540913522838071</v>
+        <v>-0.07185398341593366</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01081527038175954</v>
+        <v>0.01753687014748059</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04984324608115203</v>
+        <v>-0.02712663650654603</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06123453086327158</v>
+        <v>-0.05289928359713439</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1822905572639316</v>
+        <v>0.01006333625334501</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1015420385509638</v>
+        <v>0.01648480193920776</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.1519747993699843</v>
+        <v>-0.02845288181152725</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.06206705167629191</v>
+        <v>-0.001182532730130921</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.006139653491337283</v>
+        <v>-0.02568365473461894</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05438385959648991</v>
+        <v>0.01242417769671079</v>
       </c>
       <c r="S20" t="n">
-        <v>0.03324383109577739</v>
+        <v>0.07977238308953236</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.1016695417385435</v>
+        <v>-0.0738000072000288</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02312157803945099</v>
+        <v>-0.06010209640838563</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.1538918472961824</v>
+        <v>-0.05369157476629906</v>
       </c>
       <c r="X20" t="n">
-        <v>0.004894622365559139</v>
+        <v>-0.05017632870531482</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01665041626040651</v>
+        <v>-0.04471179484717939</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.01735093377334433</v>
+        <v>0.04389953559814239</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.1028875721893047</v>
+        <v>0.014625178500714</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.04593714842871072</v>
+        <v>0.1165761463045852</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.07433285832145804</v>
+        <v>-0.03439309757239029</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.01252531313282832</v>
+        <v>-0.01096813987255949</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.03305482637065927</v>
+        <v>-0.01911396445585782</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.005157128928223205</v>
+        <v>0.02146789387157549</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.07041026025650642</v>
+        <v>0.01318891675566702</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.006300157503937598</v>
+        <v>0.002773451093804375</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.03158028950723768</v>
+        <v>0.007758271033084132</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.04420310507762694</v>
+        <v>0.01417772071088284</v>
       </c>
       <c r="AK20" t="n">
-        <v>-0.1252306307657692</v>
+        <v>-0.06019828879315518</v>
       </c>
     </row>
     <row r="21">
@@ -2807,112 +2807,112 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4860316507912698</v>
+        <v>0.4662595610382442</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1058186454661367</v>
+        <v>0.1843700814803259</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3012090302257556</v>
+        <v>0.2846732986931948</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1192919822995575</v>
+        <v>0.08741929367717471</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.08838520963024075</v>
+        <v>-0.08949750999003996</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.09250581264531613</v>
+        <v>-0.03526689306757227</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05772294307357684</v>
+        <v>-0.02362675050700203</v>
       </c>
       <c r="I21" t="n">
-        <v>0.004374109352733818</v>
+        <v>0.03714734858939436</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1052126303157579</v>
+        <v>0.047499837999352</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08062851571289283</v>
+        <v>0.02184757539030156</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1366879171979299</v>
+        <v>-0.01441637766551066</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00385209630240756</v>
+        <v>-0.09138353353413414</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.05447836195904898</v>
+        <v>-0.03233571334285337</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1541123528088202</v>
+        <v>-0.04229440917763671</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.07715592889822245</v>
+        <v>-0.01008311233244933</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01009075226880672</v>
+        <v>0.06365372661490645</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.007543688592214806</v>
+        <v>0.01740179760719043</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01005325133128328</v>
+        <v>-0.07852332209328837</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.1016695417385435</v>
+        <v>-0.0738000072000288</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.01245631140778519</v>
+        <v>-0.008649442597770391</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0601800045001125</v>
+        <v>-0.01200772803091212</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.06773869346733669</v>
+        <v>-0.07899785199140796</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.0763144078601965</v>
+        <v>-0.02267663470653883</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.1729348233705843</v>
+        <v>-0.04236621746486986</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07819545488637215</v>
+        <v>0.0006049944199776799</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.008523213080327009</v>
+        <v>0.03072319489277957</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.01316432910822771</v>
+        <v>0.05852068208272833</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0187369684242106</v>
+        <v>-0.06374339097356389</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.003030075751893797</v>
+        <v>0.0004543698174792699</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.006888172204305107</v>
+        <v>0.03196505586022344</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.1095402385059626</v>
+        <v>-0.03176095904383618</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.08895672391809795</v>
+        <v>-0.009597734390937564</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.1237665941648541</v>
+        <v>-0.01186401545606182</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.006255156378909473</v>
+        <v>0.05852394609578438</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.1001470036750919</v>
+        <v>0.008004128016512065</v>
       </c>
     </row>
     <row r="22">
@@ -2922,112 +2922,112 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04594164854121353</v>
+        <v>-0.03713400453601814</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05757443936098403</v>
+        <v>0.05124846099384398</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3379194479861997</v>
+        <v>0.2596966867867471</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.08521413035325884</v>
+        <v>0.01298808395233581</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05703442586064652</v>
+        <v>0.05283592334369337</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1041656041401035</v>
+        <v>0.02758964635858543</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01828245706142654</v>
+        <v>-0.07259107436429746</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07539788494712368</v>
+        <v>0.04096768387073548</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02271806795169879</v>
+        <v>-0.008112800451201805</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02590114752868822</v>
+        <v>-0.03172399889599559</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002530563264081602</v>
+        <v>-0.05151841407365629</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.008631215780394511</v>
+        <v>0.05297675590702363</v>
       </c>
       <c r="N22" t="n">
-        <v>0.08915172879321984</v>
+        <v>0.003982575930303722</v>
       </c>
       <c r="O22" t="n">
-        <v>0.075990399759994</v>
+        <v>-0.05418165672662691</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1014100352508813</v>
+        <v>-0.01238318553274213</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.03198379959498988</v>
+        <v>-0.007920223680894723</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.0151908797719943</v>
+        <v>0.03524778899115596</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1021630540763519</v>
+        <v>-0.06643370573482293</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02312157803945099</v>
+        <v>-0.06010209640838563</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.01245631140778519</v>
+        <v>-0.008649442597770391</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.02353108827720693</v>
+        <v>0.07162838251353006</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.09849096227405685</v>
+        <v>-0.04199795999183997</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.000150003750094e-06</v>
+        <v>-0.01342776571106284</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.08335108377709442</v>
+        <v>-0.0774875739502958</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03828695717392935</v>
+        <v>0.01528479713918856</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.08079501987549689</v>
+        <v>-0.08230218520874083</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.09774694367359184</v>
+        <v>-0.07380797523190093</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.03437635940898522</v>
+        <v>0.03580324721298885</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.07906697667441687</v>
+        <v>0.09851866607466429</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.009904747618690467</v>
+        <v>-0.002758859035436142</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.0002490062251556289</v>
+        <v>0.07501422005688023</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.00115052876321908</v>
+        <v>0.01092743570974284</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.03066676666916673</v>
+        <v>0.002144936579746319</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.04660766519162979</v>
+        <v>-0.04747833391333565</v>
       </c>
       <c r="AK22" t="n">
-        <v>-0.03299332483312083</v>
+        <v>-0.03187865551462206</v>
       </c>
     </row>
     <row r="23">
@@ -3037,112 +3037,112 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.02684767119177979</v>
+        <v>0.01635577742310969</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03240681017025426</v>
+        <v>-0.01387119148476594</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04512412810320258</v>
+        <v>-0.07978899115596462</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05057826445661141</v>
+        <v>0.09509730838923355</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03237080927023175</v>
+        <v>0.08282788331153325</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07080627015675392</v>
+        <v>0.06868702674810699</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01121578039450986</v>
+        <v>0.01871057084228337</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04097652441311033</v>
+        <v>0.02131909327637311</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.08408760219005475</v>
+        <v>-0.0501378325513302</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.06342158553963849</v>
+        <v>-0.008395713582854332</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02444011100277507</v>
+        <v>-0.1211681326725307</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.07034275856896423</v>
+        <v>-0.01676061104244417</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06169054226355659</v>
+        <v>0.06411616046464186</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.06680717017925449</v>
+        <v>0.05932074928299713</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.02911572789319733</v>
+        <v>0.004381937527750111</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.03377934448361209</v>
+        <v>0.05862234648938595</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03124278106952674</v>
+        <v>0.0520937443749775</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.08711917797944949</v>
+        <v>-0.00514437257749031</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.1538918472961824</v>
+        <v>-0.05369157476629906</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0601800045001125</v>
+        <v>-0.01200772803091212</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.02353108827720693</v>
+        <v>0.07162838251353006</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.05698042451061276</v>
+        <v>0.001833799335197341</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.06341108527713193</v>
+        <v>-0.01931354925419702</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.05392184804620116</v>
+        <v>-0.05502550010200041</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01173029325733143</v>
+        <v>0.01725107700430802</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.05282232055801395</v>
+        <v>0.05525551702206809</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.0248691217280432</v>
+        <v>-0.0158496633986536</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.005272631815795395</v>
+        <v>0.09306738026952108</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.001573539338483462</v>
+        <v>0.02098577994311977</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.03087077176929423</v>
+        <v>0.01100202800811203</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.003469586739668492</v>
+        <v>-0.01271169884679539</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.07899047476186905</v>
+        <v>0.06941595766383066</v>
       </c>
       <c r="AI23" t="n">
-        <v>-0.005487137178429461</v>
+        <v>0.04497339589358357</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.008065701642541064</v>
+        <v>0.09761405445621782</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.01285532138303458</v>
+        <v>-0.03311715646862588</v>
       </c>
     </row>
     <row r="24">
@@ -3152,112 +3152,112 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001018525463136579</v>
+        <v>-0.01937882951531806</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0002415060376509413</v>
+        <v>0.0107251629006516</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.09652291307282682</v>
+        <v>0.03027352909411637</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006177154428860722</v>
+        <v>0.0382127608510434</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04798169954248856</v>
+        <v>0.03310515642062568</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03681092027300682</v>
+        <v>0.02887518750075</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1379404485112128</v>
+        <v>0.03775051900207601</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00254406360159004</v>
+        <v>0.05176763107052428</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.1089117227930698</v>
+        <v>0.1102787131148525</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08079801995049876</v>
+        <v>0.02106555626222505</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.04166204155103877</v>
+        <v>0.002541610166440666</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04229505737643441</v>
+        <v>-0.009161316645266581</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.02475811895297382</v>
+        <v>-0.007223836895347582</v>
       </c>
       <c r="O24" t="n">
-        <v>0.09353483837095927</v>
+        <v>-0.06990834363337453</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.04331358283957099</v>
+        <v>0.0105936423745695</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.06881572039300983</v>
+        <v>0.0007296989187956752</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.01511737793444836</v>
+        <v>-0.04550130200520802</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.05625440636015901</v>
+        <v>0.05757344629378518</v>
       </c>
       <c r="T24" t="n">
-        <v>0.004894622365559139</v>
+        <v>-0.05017632870531482</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.06773869346733669</v>
+        <v>-0.07899785199140796</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.09849096227405685</v>
+        <v>-0.04199795999183997</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.05698042451061276</v>
+        <v>0.001833799335197341</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.03060376509412735</v>
+        <v>0.01670205080820323</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.1221540538513463</v>
+        <v>0.0306810507242029</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.0110972774319358</v>
+        <v>0.03156012624050496</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.004047101177529438</v>
+        <v>0.01918596474385897</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.07855246381159529</v>
+        <v>-0.04839004956019824</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.008130203255081377</v>
+        <v>0.05617116868467474</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.03967449186229656</v>
+        <v>-0.05444527378109512</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.08250356258906473</v>
+        <v>0.008718850875403502</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.06173854346358659</v>
+        <v>-0.0573625334501338</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.0435100877521938</v>
+        <v>0.01727133308533234</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.05327683192079802</v>
+        <v>0.07615566462265849</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.03762844071101778</v>
+        <v>-0.1128455713822855</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.0007560189004725118</v>
+        <v>0.08317530870123481</v>
       </c>
     </row>
     <row r="25">
@@ -3267,112 +3267,112 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.09833345833645842</v>
+        <v>-0.09055197820791283</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03410785269631741</v>
+        <v>-0.03798437593750375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.315508887722193</v>
+        <v>0.2722583370333481</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05579689492237306</v>
+        <v>-0.08380027120108481</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06923273081827046</v>
+        <v>0.09847776991107965</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1142698567464187</v>
+        <v>0.01226644906579626</v>
       </c>
       <c r="H25" t="n">
-        <v>0.007603690092252306</v>
+        <v>-0.01846999387997552</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07388734718367959</v>
+        <v>-0.03469453877815511</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09923048076201905</v>
+        <v>0.02571783087132349</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.1223235580889522</v>
+        <v>0.003092076368305473</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00673516837920948</v>
+        <v>-0.02461123444493778</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01977349433735844</v>
+        <v>0.005577430309721239</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01562289057226431</v>
+        <v>0.00583624734498938</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.09842946073651841</v>
+        <v>-0.08067075468301874</v>
       </c>
       <c r="P25" t="n">
-        <v>0.03393384834620865</v>
+        <v>0.02672631490525962</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02759168979224481</v>
+        <v>0.009880551522206089</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01225530638265957</v>
+        <v>-0.03846965787863151</v>
       </c>
       <c r="S25" t="n">
-        <v>0.07762394059851496</v>
+        <v>0.05770285481141925</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01665041626040651</v>
+        <v>-0.04471179484717939</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.0763144078601965</v>
+        <v>-0.02267663470653883</v>
       </c>
       <c r="V25" t="n">
-        <v>6.000150003750094e-06</v>
+        <v>-0.01342776571106284</v>
       </c>
       <c r="W25" t="n">
-        <v>0.06341108527713193</v>
+        <v>-0.01931354925419702</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.03060376509412735</v>
+        <v>0.01670205080820323</v>
       </c>
       <c r="Y25" t="n">
         <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.01476636915922898</v>
+        <v>0.08282154728618915</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.05538888472211805</v>
+        <v>0.01743818175272701</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.07227630690767269</v>
+        <v>0.03593591974367898</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0297502437560939</v>
+        <v>-0.008666530666122664</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.03689192229805745</v>
+        <v>-0.002087432349729399</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.02105002625065627</v>
+        <v>-0.01986007944031776</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.006778669466736669</v>
+        <v>0.05137940551762207</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.07209480237005925</v>
+        <v>0.09562214248856996</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.05608490212255306</v>
+        <v>0.03606302425209701</v>
       </c>
       <c r="AI25" t="n">
-        <v>-0.01073726843171079</v>
+        <v>-0.0497874311497246</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.04489012225305632</v>
+        <v>0.03319923679694719</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.1410935273381834</v>
+        <v>0.0007900831603326413</v>
       </c>
     </row>
     <row r="26">
@@ -3382,112 +3382,112 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1801110027750694</v>
+        <v>-0.07277030708122832</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0287227180679517</v>
+        <v>0.09499285997143989</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.09596789919747993</v>
+        <v>0.002387241548966196</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.04490662266556664</v>
+        <v>0.04917178068712275</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09174979374484363</v>
+        <v>0.01526838107352429</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.01720993024825621</v>
+        <v>0.01696845187380749</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04820070501762544</v>
+        <v>-0.01589891159564638</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01157428935723393</v>
+        <v>0.107746798987196</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05717692942323558</v>
+        <v>0.05436722546890187</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.02836120903022575</v>
+        <v>0.03397962391849568</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.02206855171379285</v>
+        <v>0.02297077988311953</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.05170179254481362</v>
+        <v>-0.02619111276445106</v>
       </c>
       <c r="N26" t="n">
-        <v>0.04453911347783695</v>
+        <v>-0.006213816855267421</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.09001575039375985</v>
+        <v>-0.08163632654530618</v>
       </c>
       <c r="P26" t="n">
-        <v>0.06576614415360384</v>
+        <v>-0.05128273313093253</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.06048151203780094</v>
+        <v>0.04793923175692703</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01294082352058801</v>
+        <v>0.002222120888483554</v>
       </c>
       <c r="S26" t="n">
-        <v>0.03901747543688592</v>
+        <v>-0.009952455809823239</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.01735093377334433</v>
+        <v>0.04389953559814239</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.1729348233705843</v>
+        <v>-0.04236621746486986</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.08335108377709442</v>
+        <v>-0.0774875739502958</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.05392184804620116</v>
+        <v>-0.05502550010200041</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.1221540538513463</v>
+        <v>0.0306810507242029</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.01476636915922898</v>
+        <v>0.08282154728618915</v>
       </c>
       <c r="Z26" t="n">
         <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04087752193804845</v>
+        <v>-0.04885977943911776</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.04111452786319658</v>
+        <v>-0.001370117480469922</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0196999924998125</v>
+        <v>0.002447913791655167</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.005179629490737268</v>
+        <v>0.003821103284413138</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.03767494187354684</v>
+        <v>-0.007621374485497942</v>
       </c>
       <c r="AF26" t="n">
-        <v>-0.01052726318157954</v>
+        <v>0.06776686306745228</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.0711692792319808</v>
+        <v>0.02731940527762111</v>
       </c>
       <c r="AH26" t="n">
-        <v>-0.06727668191704793</v>
+        <v>0.06359939039756159</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.006615165379134478</v>
+        <v>0.0368561794247177</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-0.01514437860946524</v>
+        <v>-0.02773979095916384</v>
       </c>
       <c r="AK26" t="n">
-        <v>-0.02078601965049126</v>
+        <v>0.01137057348229393</v>
       </c>
     </row>
     <row r="27">
@@ -3497,112 +3497,112 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.09870696767419186</v>
+        <v>0.000523874095496382</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.07567689192229805</v>
+        <v>-0.05120094080376322</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02993474836870922</v>
+        <v>0.07535108540434161</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1364044101102528</v>
+        <v>-0.07565195060780243</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06856521413035326</v>
+        <v>-0.07063689054756218</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.06187354683867097</v>
+        <v>-0.004993555974223897</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.08074401860046501</v>
+        <v>-0.05005988023952096</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.04700517512937823</v>
+        <v>-0.08001094404377618</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.004930623265581639</v>
+        <v>0.03503946815787263</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04875271881797045</v>
+        <v>-0.0274875019500078</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03436585914647866</v>
+        <v>-0.01064173856695427</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.01840396009900247</v>
+        <v>0.02373839895359581</v>
       </c>
       <c r="N27" t="n">
-        <v>0.004068101702542563</v>
+        <v>-0.04756511826047304</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.0004365109127728193</v>
+        <v>0.04078614714458858</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.1159228980724518</v>
+        <v>-0.001682310729242917</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.06341858546463662</v>
+        <v>-0.02043003372013488</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1109862746568664</v>
+        <v>0.04250445801783207</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1503442586064652</v>
+        <v>0.01881837927351709</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.1028875721893047</v>
+        <v>0.014625178500714</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07819545488637215</v>
+        <v>0.0006049944199776799</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03828695717392935</v>
+        <v>0.01528479713918856</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01173029325733143</v>
+        <v>0.01725107700430802</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0110972774319358</v>
+        <v>0.03156012624050496</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.05538888472211805</v>
+        <v>0.01743818175272701</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.04087752193804845</v>
+        <v>-0.04885977943911776</v>
       </c>
       <c r="AA27" t="n">
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03720993024825621</v>
+        <v>0.06339606158424634</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.04106502662566564</v>
+        <v>0.0001281605126420506</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.1403555088877222</v>
+        <v>-0.04926019704078816</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.09140328508212706</v>
+        <v>0.01873063492253969</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.0901822545563639</v>
+        <v>-0.0223815295261181</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.01976299407485187</v>
+        <v>-0.05933687734750939</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.02376509412735318</v>
+        <v>0.05135943743774975</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.02515112877821946</v>
+        <v>-0.06082190728762915</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.07525988149703743</v>
+        <v>-0.02809518438073752</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.001224030600765019</v>
+        <v>-0.04336586946347785</v>
       </c>
     </row>
     <row r="28">
@@ -3612,112 +3612,112 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.01318832970824271</v>
+        <v>-0.04626066504266017</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0945473636840921</v>
+        <v>-0.02795905583622334</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06533713342833571</v>
+        <v>-0.01955441421765687</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.09470186754668866</v>
+        <v>-0.0687932991731967</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.08305857646441162</v>
+        <v>-0.2225336901347605</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.02037800945023626</v>
+        <v>0.03612811251245005</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.05640141003525088</v>
+        <v>-0.0008312673250693003</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06950273756843921</v>
+        <v>-0.05107422029688119</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06862971574289357</v>
+        <v>-0.02232959331837327</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02809570239255981</v>
+        <v>0.03048607394429578</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.01809945248631216</v>
+        <v>-0.06744526178104712</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.2449081227030676</v>
+        <v>-0.003486349945399782</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.03955148878721968</v>
+        <v>-0.006683258733034932</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.03943148578714468</v>
+        <v>-0.006753915015660063</v>
       </c>
       <c r="P28" t="n">
-        <v>0.05622290557263931</v>
+        <v>-0.02821566486265945</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03215030375759394</v>
+        <v>0.05913700454801819</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.06627615690392259</v>
+        <v>0.07163404653618614</v>
       </c>
       <c r="S28" t="n">
-        <v>0.02070501762544064</v>
+        <v>0.02153797415189661</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.04593714842871072</v>
+        <v>0.1165761463045852</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.008523213080327009</v>
+        <v>0.03072319489277957</v>
       </c>
       <c r="V28" t="n">
-        <v>0.08079501987549689</v>
+        <v>-0.08230218520874083</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.05282232055801395</v>
+        <v>0.05525551702206809</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.004047101177529438</v>
+        <v>0.01918596474385897</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.07227630690767269</v>
+        <v>0.03593591974367898</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.04111452786319658</v>
+        <v>-0.001370117480469922</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03720993024825621</v>
+        <v>0.06339606158424634</v>
       </c>
       <c r="AB28" t="n">
         <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1237440936023401</v>
+        <v>0.03636158544634178</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.04520363009075227</v>
+        <v>-0.08470209880839523</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.01921398034950874</v>
+        <v>0.03895532382129528</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.03000375009375235</v>
+        <v>0.0572683570734283</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.08799819995499887</v>
+        <v>0.05769267877071509</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.007746193654841371</v>
+        <v>-0.02211032844131377</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.05381084527113178</v>
+        <v>-0.02801089604358417</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-0.06632265806645166</v>
+        <v>0.02261721046884187</v>
       </c>
       <c r="AK28" t="n">
-        <v>-0.009213230330758269</v>
+        <v>-0.0619748718994876</v>
       </c>
     </row>
     <row r="29">
@@ -3727,112 +3727,112 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.05656341408535213</v>
+        <v>0.05102958011832048</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01615690392259806</v>
+        <v>0.02382979131916528</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1675721893047326</v>
+        <v>-0.005706070824283297</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.1604050101252531</v>
+        <v>0.07320115680462722</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09445286132153304</v>
+        <v>-0.003602990411961648</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01213530338258456</v>
+        <v>0.05674179496717987</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02140253506337659</v>
+        <v>-0.07713390853563415</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0152388809720243</v>
+        <v>0.01256337825351301</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07065926648166204</v>
+        <v>-0.009887559550238201</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.04612315307882697</v>
+        <v>0.01537167748670995</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04085652141303533</v>
+        <v>0.01237675350701403</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.04351758793969849</v>
+        <v>0.001421957687830751</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.06878421960549014</v>
+        <v>-0.01767175068700275</v>
       </c>
       <c r="O29" t="n">
-        <v>0.04098102452561314</v>
+        <v>0.03727685310741243</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.04233555838895972</v>
+        <v>0.0007933471733886935</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.023625590639766</v>
+        <v>0.04769001476005904</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.1790084752118803</v>
+        <v>0.02377718310873244</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.05415285382134553</v>
+        <v>-0.09234564938259752</v>
       </c>
       <c r="T29" t="n">
-        <v>0.07433285832145804</v>
+        <v>-0.03439309757239029</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.01316432910822771</v>
+        <v>0.05852068208272833</v>
       </c>
       <c r="V29" t="n">
-        <v>0.09774694367359184</v>
+        <v>-0.07380797523190093</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.0248691217280432</v>
+        <v>-0.0158496633986536</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.07855246381159529</v>
+        <v>-0.04839004956019824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0297502437560939</v>
+        <v>-0.008666530666122664</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0196999924998125</v>
+        <v>0.002447913791655167</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.04106502662566564</v>
+        <v>0.0001281605126420506</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1237440936023401</v>
+        <v>0.03636158544634178</v>
       </c>
       <c r="AC29" t="n">
         <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.1116012900322508</v>
+        <v>0.00200064800259201</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.01426985674641866</v>
+        <v>0.05264401857607431</v>
       </c>
       <c r="AF29" t="n">
-        <v>-0.006403660091502288</v>
+        <v>0.07782146328585314</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.1114257856446411</v>
+        <v>-0.006787131148524594</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.02109502737568439</v>
+        <v>0.04096307585230341</v>
       </c>
       <c r="AI29" t="n">
-        <v>-0.07380334508362708</v>
+        <v>-0.02892184368737475</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-0.04445811145278632</v>
+        <v>0.04809081636326545</v>
       </c>
       <c r="AK29" t="n">
-        <v>-0.07174679366984174</v>
+        <v>0.1004171696686787</v>
       </c>
     </row>
     <row r="30">
@@ -3842,112 +3842,112 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2489762244056102</v>
+        <v>0.1649451717806871</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3002715067876697</v>
+        <v>-0.2901498325993304</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05100277506937673</v>
+        <v>-0.1169156996627986</v>
       </c>
       <c r="E30" t="n">
-        <v>0.796828920723018</v>
+        <v>0.5607194268777075</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2284197104927623</v>
+        <v>0.929693542774171</v>
       </c>
       <c r="G30" t="n">
-        <v>0.117886447161179</v>
+        <v>-0.03504887619550478</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.09545938648466212</v>
+        <v>-0.04578594314377257</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.08445811145278632</v>
+        <v>-0.05780221520886084</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08666616665416635</v>
+        <v>-0.05723226092904372</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1063496587414685</v>
+        <v>0.0094874299497198</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1369009225230631</v>
+        <v>0.01516182064728259</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.130683267081677</v>
+        <v>-0.03910556442225769</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.04121353033825845</v>
+        <v>0.007315709262837052</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03394584864621616</v>
+        <v>-0.007284413137652551</v>
       </c>
       <c r="P30" t="n">
-        <v>0.09480387009675242</v>
+        <v>-0.001315301261205045</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1213605340133503</v>
+        <v>-0.0635937263749055</v>
       </c>
       <c r="R30" t="n">
-        <v>0.03856446411160279</v>
+        <v>0.07822140088560355</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01926798169954249</v>
+        <v>0.006449497797991192</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.01252531313282832</v>
+        <v>-0.01096813987255949</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0187369684242106</v>
+        <v>-0.06374339097356389</v>
       </c>
       <c r="V30" t="n">
-        <v>0.03437635940898522</v>
+        <v>0.03580324721298885</v>
       </c>
       <c r="W30" t="n">
-        <v>0.005272631815795395</v>
+        <v>0.09306738026952108</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.008130203255081377</v>
+        <v>0.05617116868467474</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.03689192229805745</v>
+        <v>-0.002087432349729399</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.005179629490737268</v>
+        <v>0.003821103284413138</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.1403555088877222</v>
+        <v>-0.04926019704078816</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.04520363009075227</v>
+        <v>-0.08470209880839523</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1116012900322508</v>
+        <v>0.00200064800259201</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.01455036375909398</v>
+        <v>0.003641198564794259</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.04729768244206105</v>
+        <v>0.0114810699242797</v>
       </c>
       <c r="AG30" t="n">
-        <v>-0.007440186004650116</v>
+        <v>-0.09144334177336709</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.08031500787519688</v>
+        <v>0.03331664526658107</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.05703592589814745</v>
+        <v>0.05096564386257545</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-0.01050476261906548</v>
+        <v>-0.01586012744050976</v>
       </c>
       <c r="AK30" t="n">
-        <v>-0.02714167854196355</v>
+        <v>0.09537561350245401</v>
       </c>
     </row>
     <row r="31">
@@ -3957,112 +3957,112 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02671866796669917</v>
+        <v>0.08077069108276433</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.06408160204005101</v>
+        <v>0.01748858195432782</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1168109202730068</v>
+        <v>-0.007371197484789939</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01951548788719718</v>
+        <v>0.03806914427657711</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06559813995349884</v>
+        <v>0.003024012096048384</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.02935573389334733</v>
+        <v>0.04266468265873063</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05402085052126303</v>
+        <v>-0.1286049944199777</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.05242181054526363</v>
+        <v>0.003532334129336517</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1342038550963774</v>
+        <v>-0.06419180876723507</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05554188854721368</v>
+        <v>0.03902252409009636</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0008985224630615765</v>
+        <v>0.002884811539246157</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.07828545713642841</v>
+        <v>0.05238040152160608</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.04253356333908348</v>
+        <v>-0.02461728246912988</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1352238805970149</v>
+        <v>0.04445355381421526</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.04070651766294157</v>
+        <v>0.04011721646886587</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.03365334133353334</v>
+        <v>-0.02437680150720603</v>
       </c>
       <c r="R31" t="n">
-        <v>0.08648616215405384</v>
+        <v>-0.03048194592778371</v>
       </c>
       <c r="S31" t="n">
-        <v>0.03056476411910298</v>
+        <v>-0.0652001968007872</v>
       </c>
       <c r="T31" t="n">
-        <v>0.03305482637065927</v>
+        <v>-0.01911396445585782</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003030075751893797</v>
+        <v>0.0004543698174792699</v>
       </c>
       <c r="V31" t="n">
-        <v>0.07906697667441687</v>
+        <v>0.09851866607466429</v>
       </c>
       <c r="W31" t="n">
-        <v>0.001573539338483462</v>
+        <v>0.02098577994311977</v>
       </c>
       <c r="X31" t="n">
-        <v>0.03967449186229656</v>
+        <v>-0.05444527378109512</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.02105002625065627</v>
+        <v>-0.01986007944031776</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.03767494187354684</v>
+        <v>-0.007621374485497942</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.09140328508212706</v>
+        <v>0.01873063492253969</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.01921398034950874</v>
+        <v>0.03895532382129528</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.01426985674641866</v>
+        <v>0.05264401857607431</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.01455036375909398</v>
+        <v>0.003641198564794259</v>
       </c>
       <c r="AE31" t="n">
         <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>-0.005544138603465087</v>
+        <v>-0.02487965151860607</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.07484887122178055</v>
+        <v>-0.03056143424573698</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.04240006000150004</v>
+        <v>-0.001354565418261673</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.1428530713267832</v>
+        <v>-0.03603652814611259</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.02996774919372984</v>
+        <v>0.08315918063672255</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.06069601740043501</v>
+        <v>-0.01874004296017184</v>
       </c>
     </row>
     <row r="32">
@@ -4072,112 +4072,112 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.1782359558988975</v>
+        <v>-0.2839809439237757</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.06156003900097502</v>
+        <v>0.08524843699374797</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2366849171229281</v>
+        <v>0.03148303793215173</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3063451586289657</v>
+        <v>0.1621827607310429</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07024075601890047</v>
+        <v>0.005849879399517598</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02869121728043201</v>
+        <v>0.02212693650774603</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.08269406735168379</v>
+        <v>-0.03133961335845344</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.05268881722043051</v>
+        <v>0.09773914295657182</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.2170164254106353</v>
+        <v>0.06942824571298285</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.1113372834320858</v>
+        <v>-0.07177305509222037</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.07693542338558464</v>
+        <v>0.04297140388561554</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1141303532588315</v>
+        <v>0.0433997575990304</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01862296557413935</v>
+        <v>-0.01091322765291061</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05041926048151204</v>
+        <v>0.02298863595454382</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07739743493587339</v>
+        <v>0.01693504374017496</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.07167779194479862</v>
+        <v>-0.003187116748466994</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.06308707717692942</v>
+        <v>0.05187851151404606</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.01424885622140554</v>
+        <v>0.0281623846495386</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.005157128928223205</v>
+        <v>0.02146789387157549</v>
       </c>
       <c r="U32" t="n">
-        <v>0.006888172204305107</v>
+        <v>0.03196505586022344</v>
       </c>
       <c r="V32" t="n">
-        <v>0.009904747618690467</v>
+        <v>-0.002758859035436142</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03087077176929423</v>
+        <v>0.01100202800811203</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.08250356258906473</v>
+        <v>0.008718850875403502</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.006778669466736669</v>
+        <v>0.05137940551762207</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.01052726318157954</v>
+        <v>0.06776686306745228</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0901822545563639</v>
+        <v>-0.0223815295261181</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.03000375009375235</v>
+        <v>0.0572683570734283</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.006403660091502288</v>
+        <v>0.07782146328585314</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.04729768244206105</v>
+        <v>0.0114810699242797</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.005544138603465087</v>
+        <v>-0.02487965151860607</v>
       </c>
       <c r="AF32" t="n">
         <v>1</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.06940973524338108</v>
+        <v>0.04142186168744675</v>
       </c>
       <c r="AH32" t="n">
-        <v>-0.0343673591839796</v>
+        <v>0.06453616214464858</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.008331208280207005</v>
+        <v>0.1135786303145213</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.1016035400885022</v>
+        <v>0.02670951483805935</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.02943973599339984</v>
+        <v>0.01553171012684051</v>
       </c>
     </row>
     <row r="33">
@@ -4187,112 +4187,112 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.163625590639766</v>
+        <v>-0.1215837183348733</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01695492387309683</v>
+        <v>0.05661584246336986</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07290782269556739</v>
+        <v>0.07869929079716319</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.08708017700442511</v>
+        <v>-0.04317358069432278</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9295462386559664</v>
+        <v>-0.004088176352705411</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05591389784744619</v>
+        <v>-0.001653510614042456</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06585014625365634</v>
+        <v>0.05461826647306589</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.007279681992049801</v>
+        <v>0.05446562586250345</v>
       </c>
       <c r="J33" t="n">
-        <v>0.02489762244056101</v>
+        <v>0.07332730130920524</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.1346013650341258</v>
+        <v>-0.03607051228204913</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03054526363159079</v>
+        <v>-0.07702206808827235</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.08175204380109503</v>
+        <v>0.06660727442909771</v>
       </c>
       <c r="N33" t="n">
-        <v>0.05058126453161329</v>
+        <v>0.04250935403741615</v>
       </c>
       <c r="O33" t="n">
-        <v>0.007882697067426685</v>
+        <v>0.06777713510854043</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.01857046426160654</v>
+        <v>0.05274760299041196</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.0830540763519088</v>
+        <v>-0.01149796599186397</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.0489507237680942</v>
+        <v>0.005596438385753543</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.002391059776494412</v>
+        <v>-0.02700058800235201</v>
       </c>
       <c r="T33" t="n">
-        <v>0.07041026025650642</v>
+        <v>0.01318891675566702</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.1095402385059626</v>
+        <v>-0.03176095904383618</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.0002490062251556289</v>
+        <v>0.07501422005688023</v>
       </c>
       <c r="W33" t="n">
-        <v>0.003469586739668492</v>
+        <v>-0.01271169884679539</v>
       </c>
       <c r="X33" t="n">
-        <v>0.06173854346358659</v>
+        <v>-0.0573625334501338</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.07209480237005925</v>
+        <v>0.09562214248856996</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0711692792319808</v>
+        <v>0.02731940527762111</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.01976299407485187</v>
+        <v>-0.05933687734750939</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.08799819995499887</v>
+        <v>0.05769267877071509</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1114257856446411</v>
+        <v>-0.006787131148524594</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.007440186004650116</v>
+        <v>-0.09144334177336709</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.07484887122178055</v>
+        <v>-0.03056143424573698</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.06940973524338108</v>
+        <v>0.04142186168744675</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.003486087152178804</v>
+        <v>-0.0997874071496286</v>
       </c>
       <c r="AI33" t="n">
-        <v>-0.04001650041251031</v>
+        <v>-0.01361208644834579</v>
       </c>
       <c r="AJ33" t="n">
-        <v>-0.04226505662641566</v>
+        <v>0.07775608702434809</v>
       </c>
       <c r="AK33" t="n">
-        <v>-0.04006150153753844</v>
+        <v>-0.01088692354769419</v>
       </c>
     </row>
     <row r="34">
@@ -4302,112 +4302,112 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1501762544063601</v>
+        <v>0.009947367789471157</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0623865596639916</v>
+        <v>0.02197343189372758</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02746418660466512</v>
+        <v>0.04676783507134029</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1017085427135678</v>
+        <v>0.01587135948543794</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03186379659491487</v>
+        <v>0.0260063120252481</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.004371109277731943</v>
+        <v>0.004860499441997768</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0390324758118953</v>
+        <v>0.007486493945975784</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.02531913297832446</v>
+        <v>0.04201380005520022</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06545263631590789</v>
+        <v>0.06720554882219529</v>
       </c>
       <c r="K34" t="n">
-        <v>0.008230705767644191</v>
+        <v>-0.01198939195756783</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0511572789319733</v>
+        <v>-0.03117065268261073</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00933923348083702</v>
+        <v>0.006637178548714195</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.03444236105902648</v>
+        <v>-0.001877191508766035</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02847971199279982</v>
+        <v>-0.02092616370465482</v>
       </c>
       <c r="P34" t="n">
-        <v>0.07082277056926423</v>
+        <v>0.02177749510998044</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.0002535063376584415</v>
+        <v>-0.007851679406717627</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.002206555163879097</v>
+        <v>0.04973568694274777</v>
       </c>
       <c r="S34" t="n">
-        <v>0.00998124953123828</v>
+        <v>0.0478376633506534</v>
       </c>
       <c r="T34" t="n">
-        <v>0.006300157503937598</v>
+        <v>0.002773451093804375</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08895672391809795</v>
+        <v>-0.009597734390937564</v>
       </c>
       <c r="V34" t="n">
-        <v>0.00115052876321908</v>
+        <v>0.01092743570974284</v>
       </c>
       <c r="W34" t="n">
-        <v>0.07899047476186905</v>
+        <v>0.06941595766383066</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.0435100877521938</v>
+        <v>0.01727133308533234</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.05608490212255306</v>
+        <v>0.03606302425209701</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.06727668191704793</v>
+        <v>0.06359939039756159</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.02376509412735318</v>
+        <v>0.05135943743774975</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.007746193654841371</v>
+        <v>-0.02211032844131377</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.02109502737568439</v>
+        <v>0.04096307585230341</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.08031500787519688</v>
+        <v>0.03331664526658107</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.04240006000150004</v>
+        <v>-0.001354565418261673</v>
       </c>
       <c r="AF34" t="n">
-        <v>-0.0343673591839796</v>
+        <v>0.06453616214464858</v>
       </c>
       <c r="AG34" t="n">
-        <v>-0.003486087152178804</v>
+        <v>-0.0997874071496286</v>
       </c>
       <c r="AH34" t="n">
         <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>-0.05812045301132528</v>
+        <v>-0.02826760107040428</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.2245601140028501</v>
+        <v>-0.04053040212160849</v>
       </c>
       <c r="AK34" t="n">
-        <v>-0.03450986274656866</v>
+        <v>-0.001647558590234361</v>
       </c>
     </row>
     <row r="35">
@@ -4417,112 +4417,112 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.08111902797569939</v>
+        <v>-0.02992207168828675</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0678871971799295</v>
+        <v>0.02468438673754695</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0698057451436286</v>
+        <v>-0.01377259909039636</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06651466286657166</v>
+        <v>0.09686937947751791</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.03882997074926873</v>
+        <v>0.03334458137832551</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.0108812720318008</v>
+        <v>0.01461692246768987</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.107851196279907</v>
+        <v>0.008412321649286597</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0360504012600315</v>
+        <v>0.04168931875727503</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1179254481362034</v>
+        <v>0.01349506198024792</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06742518562964074</v>
+        <v>-0.05563999855999424</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1239255981399535</v>
+        <v>-0.04269060276241105</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02918472961824045</v>
+        <v>0.02173573494293977</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.06928073201830046</v>
+        <v>0.03502948411793647</v>
       </c>
       <c r="O35" t="n">
-        <v>0.03443486087152179</v>
+        <v>0.02169618278473114</v>
       </c>
       <c r="P35" t="n">
-        <v>0.04067051676291907</v>
+        <v>0.03847608990435962</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.02600015000375009</v>
+        <v>-0.006622874491497966</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.09725943148578714</v>
+        <v>0.05318882075528302</v>
       </c>
       <c r="S35" t="n">
-        <v>0.04933173329333233</v>
+        <v>-0.01991662366649467</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03158028950723768</v>
+        <v>0.007758271033084132</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.1237665941648541</v>
+        <v>-0.01186401545606182</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.03066676666916673</v>
+        <v>0.002144936579746319</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.005487137178429461</v>
+        <v>0.04497339589358357</v>
       </c>
       <c r="X35" t="n">
-        <v>0.05327683192079802</v>
+        <v>0.07615566462265849</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.01073726843171079</v>
+        <v>-0.0497874311497246</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.006615165379134478</v>
+        <v>0.0368561794247177</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.02515112877821946</v>
+        <v>-0.06082190728762915</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.05381084527113178</v>
+        <v>-0.02801089604358417</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.07380334508362708</v>
+        <v>-0.02892184368737475</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.05703592589814745</v>
+        <v>0.05096564386257545</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.1428530713267832</v>
+        <v>-0.03603652814611259</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.008331208280207005</v>
+        <v>0.1135786303145213</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.04001650041251031</v>
+        <v>-0.01361208644834579</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.05812045301132528</v>
+        <v>-0.02826760107040428</v>
       </c>
       <c r="AI35" t="n">
         <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.02254856371409285</v>
+        <v>-0.006184536738146952</v>
       </c>
       <c r="AK35" t="n">
-        <v>-0.03216680417010425</v>
+        <v>-0.01090775563102252</v>
       </c>
     </row>
     <row r="36">
@@ -4532,112 +4532,112 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.004036600915022876</v>
+        <v>-0.01792691970767883</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.06136203405085127</v>
+        <v>-0.04862995451981808</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3513507837695942</v>
+        <v>-0.3928430753723015</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2723933098327458</v>
+        <v>0.2115212940851763</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.05994149853746344</v>
+        <v>-0.001504230016920068</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0006315157878946973</v>
+        <v>0.04644709778839115</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.03231830795769895</v>
+        <v>-0.05958916635666543</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0002460061501537539</v>
+        <v>-0.0101378325513302</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03231230780769519</v>
+        <v>-0.0169937959751839</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0320168004200105</v>
+        <v>-0.05079303517214069</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.02120603015075377</v>
+        <v>-0.02622759291037164</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1832370809270232</v>
+        <v>-0.03194489577958312</v>
       </c>
       <c r="N36" t="n">
-        <v>0.04881272031800795</v>
+        <v>-0.08102336409345637</v>
       </c>
       <c r="O36" t="n">
-        <v>0.06574964374109353</v>
+        <v>0.01317182868731475</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03890797269931748</v>
+        <v>-0.03691320365281461</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.09226730668266707</v>
+        <v>-0.08376590306361226</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.009396234905872648</v>
+        <v>0.04498961995847983</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.1157173929348234</v>
+        <v>-0.06036427345709383</v>
       </c>
       <c r="T36" t="n">
-        <v>0.04420310507762694</v>
+        <v>0.01417772071088284</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006255156378909473</v>
+        <v>0.05852394609578438</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.04660766519162979</v>
+        <v>-0.04747833391333565</v>
       </c>
       <c r="W36" t="n">
-        <v>0.008065701642541064</v>
+        <v>0.09761405445621782</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.03762844071101778</v>
+        <v>-0.1128455713822855</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.04489012225305632</v>
+        <v>0.03319923679694719</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.01514437860946524</v>
+        <v>-0.02773979095916384</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.07525988149703743</v>
+        <v>-0.02809518438073752</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.06632265806645166</v>
+        <v>0.02261721046884187</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.04445811145278632</v>
+        <v>0.04809081636326545</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.01050476261906548</v>
+        <v>-0.01586012744050976</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.02996774919372984</v>
+        <v>0.08315918063672255</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.1016035400885022</v>
+        <v>0.02670951483805935</v>
       </c>
       <c r="AG36" t="n">
-        <v>-0.04226505662641566</v>
+        <v>0.07775608702434809</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.2245601140028501</v>
+        <v>-0.04053040212160849</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.02254856371409285</v>
+        <v>-0.006184536738146952</v>
       </c>
       <c r="AJ36" t="n">
         <v>1</v>
       </c>
       <c r="AK36" t="n">
-        <v>-0.04651466286657167</v>
+        <v>-0.05946378985515942</v>
       </c>
     </row>
     <row r="37">
@@ -4647,109 +4647,109 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1995529888247206</v>
+        <v>0.2276531986127945</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01532588314707868</v>
+        <v>-0.03616852867411469</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07492537313432836</v>
+        <v>0.005553334213336853</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2151728793219831</v>
+        <v>0.2495371581486326</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.07434035850896273</v>
+        <v>0.1044530258121033</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.007185179629490737</v>
+        <v>0.02651617006468026</v>
       </c>
       <c r="H37" t="n">
-        <v>0.009102227555688892</v>
+        <v>-0.05436194544778179</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07271731793294832</v>
+        <v>0.06203900015600063</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.01896647416185405</v>
+        <v>0.01590063960255841</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0659161479036976</v>
+        <v>0.04996407185628742</v>
       </c>
       <c r="L37" t="n">
-        <v>0.09145278631965799</v>
+        <v>0.06850885003540014</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.05374184354608865</v>
+        <v>0.09532002928011712</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.01245331133278332</v>
+        <v>-0.06283676334705339</v>
       </c>
       <c r="O37" t="n">
-        <v>0.088139203480087</v>
+        <v>0.05972788691154764</v>
       </c>
       <c r="P37" t="n">
-        <v>0.05753243831095777</v>
+        <v>0.05309560438241753</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.01670741768544214</v>
+        <v>0.008983427933711735</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.06206705167629191</v>
+        <v>-0.05407807231228925</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.006187654691367284</v>
+        <v>0.06227746510986044</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.1252306307657692</v>
+        <v>-0.06019828879315518</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1001470036750919</v>
+        <v>0.008004128016512065</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.03299332483312083</v>
+        <v>-0.03187865551462206</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01285532138303458</v>
+        <v>-0.03311715646862588</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0007560189004725118</v>
+        <v>0.08317530870123481</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1410935273381834</v>
+        <v>0.0007900831603326413</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.02078601965049126</v>
+        <v>0.01137057348229393</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.001224030600765019</v>
+        <v>-0.04336586946347785</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.009213230330758269</v>
+        <v>-0.0619748718994876</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.07174679366984174</v>
+        <v>0.1004171696686787</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.02714167854196355</v>
+        <v>0.09537561350245401</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.06069601740043501</v>
+        <v>-0.01874004296017184</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.02943973599339984</v>
+        <v>0.01553171012684051</v>
       </c>
       <c r="AG37" t="n">
-        <v>-0.04006150153753844</v>
+        <v>-0.01088692354769419</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.03450986274656866</v>
+        <v>-0.001647558590234361</v>
       </c>
       <c r="AI37" t="n">
-        <v>-0.03216680417010425</v>
+        <v>-0.01090775563102252</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-0.04651466286657167</v>
+        <v>-0.05946378985515942</v>
       </c>
       <c r="AK37" t="n">
         <v>1</v>
